--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Penk</t>
+  </si>
+  <si>
+    <t>Ogfr</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Penk</t>
-  </si>
-  <si>
-    <t>Ogfr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06362633333333333</v>
+        <v>35.85004166666667</v>
       </c>
       <c r="H2">
-        <v>0.190879</v>
+        <v>107.550125</v>
       </c>
       <c r="I2">
-        <v>0.00176891764840813</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.001768917648408131</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.970049666666666</v>
+        <v>12.45732633333333</v>
       </c>
       <c r="N2">
-        <v>29.910149</v>
+        <v>37.371979</v>
       </c>
       <c r="O2">
-        <v>0.2070400435392452</v>
+        <v>0.3168918958795008</v>
       </c>
       <c r="P2">
-        <v>0.2070400435392452</v>
+        <v>0.3168918958795008</v>
       </c>
       <c r="Q2">
-        <v>0.6343577034412221</v>
+        <v>446.5956681052639</v>
       </c>
       <c r="R2">
-        <v>5.709219330970999</v>
+        <v>4019.361012947375</v>
       </c>
       <c r="S2">
-        <v>0.0003662367869437585</v>
+        <v>0.3168918958795008</v>
       </c>
       <c r="T2">
-        <v>0.0003662367869437585</v>
+        <v>0.3168918958795008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06362633333333333</v>
+        <v>35.85004166666667</v>
       </c>
       <c r="H3">
-        <v>0.190879</v>
+        <v>107.550125</v>
       </c>
       <c r="I3">
-        <v>0.00176891764840813</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.001768917648408131</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>30.823538</v>
       </c>
       <c r="O3">
-        <v>0.2133625830333904</v>
+        <v>0.2613650562774275</v>
       </c>
       <c r="P3">
-        <v>0.2133625830333904</v>
+        <v>0.2613650562774275</v>
       </c>
       <c r="Q3">
-        <v>0.653729567766889</v>
+        <v>368.3417072046945</v>
       </c>
       <c r="R3">
-        <v>5.883566109902</v>
+        <v>3315.075364842251</v>
       </c>
       <c r="S3">
-        <v>0.0003774208386377095</v>
+        <v>0.2613650562774275</v>
       </c>
       <c r="T3">
-        <v>0.0003774208386377095</v>
+        <v>0.2613650562774275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06362633333333333</v>
+        <v>35.85004166666667</v>
       </c>
       <c r="H4">
-        <v>0.190879</v>
+        <v>107.550125</v>
       </c>
       <c r="I4">
-        <v>0.00176891764840813</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.001768917648408131</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.925904</v>
+        <v>7.626680333333333</v>
       </c>
       <c r="N4">
-        <v>23.777712</v>
+        <v>22.880041</v>
       </c>
       <c r="O4">
-        <v>0.1645909061751459</v>
+        <v>0.194008981175193</v>
       </c>
       <c r="P4">
-        <v>0.1645909061751459</v>
+        <v>0.1940089811751931</v>
       </c>
       <c r="Q4">
-        <v>0.504296209872</v>
+        <v>273.4168077283472</v>
       </c>
       <c r="R4">
-        <v>4.538665888848</v>
+        <v>2460.751269555125</v>
       </c>
       <c r="S4">
-        <v>0.0002911477587007022</v>
+        <v>0.194008981175193</v>
       </c>
       <c r="T4">
-        <v>0.0002911477587007023</v>
+        <v>0.1940089811751931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06362633333333333</v>
+        <v>35.85004166666667</v>
       </c>
       <c r="H5">
-        <v>0.190879</v>
+        <v>107.550125</v>
       </c>
       <c r="I5">
-        <v>0.00176891764840813</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.001768917648408131</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,524 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.98470933333333</v>
+        <v>8.952446</v>
       </c>
       <c r="N5">
-        <v>59.954128</v>
+        <v>26.857338</v>
       </c>
       <c r="O5">
-        <v>0.4150064672522186</v>
+        <v>0.2277340666678787</v>
       </c>
       <c r="P5">
-        <v>0.4150064672522186</v>
+        <v>0.2277340666678787</v>
       </c>
       <c r="Q5">
-        <v>1.271553777612444</v>
+        <v>320.9455621185834</v>
       </c>
       <c r="R5">
-        <v>11.443983998512</v>
+        <v>2888.51005906725</v>
       </c>
       <c r="S5">
-        <v>0.0007341122641259603</v>
+        <v>0.2277340666678787</v>
       </c>
       <c r="T5">
-        <v>0.0007341122641259603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>35.85004166666667</v>
-      </c>
-      <c r="H6">
-        <v>107.550125</v>
-      </c>
-      <c r="I6">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="J6">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>9.970049666666666</v>
-      </c>
-      <c r="N6">
-        <v>29.910149</v>
-      </c>
-      <c r="O6">
-        <v>0.2070400435392452</v>
-      </c>
-      <c r="P6">
-        <v>0.2070400435392452</v>
-      </c>
-      <c r="Q6">
-        <v>357.4266959687361</v>
-      </c>
-      <c r="R6">
-        <v>3216.840263718625</v>
-      </c>
-      <c r="S6">
-        <v>0.2063548751586063</v>
-      </c>
-      <c r="T6">
-        <v>0.2063548751586063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>35.85004166666667</v>
-      </c>
-      <c r="H7">
-        <v>107.550125</v>
-      </c>
-      <c r="I7">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="J7">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>10.27451266666667</v>
-      </c>
-      <c r="N7">
-        <v>30.823538</v>
-      </c>
-      <c r="O7">
-        <v>0.2133625830333904</v>
-      </c>
-      <c r="P7">
-        <v>0.2133625830333904</v>
-      </c>
-      <c r="Q7">
-        <v>368.3417072046945</v>
-      </c>
-      <c r="R7">
-        <v>3315.075364842251</v>
-      </c>
-      <c r="S7">
-        <v>0.2126564911440781</v>
-      </c>
-      <c r="T7">
-        <v>0.2126564911440781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>35.85004166666667</v>
-      </c>
-      <c r="H8">
-        <v>107.550125</v>
-      </c>
-      <c r="I8">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="J8">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>7.925904</v>
-      </c>
-      <c r="N8">
-        <v>23.777712</v>
-      </c>
-      <c r="O8">
-        <v>0.1645909061751459</v>
-      </c>
-      <c r="P8">
-        <v>0.1645909061751459</v>
-      </c>
-      <c r="Q8">
-        <v>284.143988646</v>
-      </c>
-      <c r="R8">
-        <v>2557.295897814</v>
-      </c>
-      <c r="S8">
-        <v>0.1640462169318279</v>
-      </c>
-      <c r="T8">
-        <v>0.1640462169318279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>35.85004166666667</v>
-      </c>
-      <c r="H9">
-        <v>107.550125</v>
-      </c>
-      <c r="I9">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="J9">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>19.98470933333333</v>
-      </c>
-      <c r="N9">
-        <v>59.954128</v>
-      </c>
-      <c r="O9">
-        <v>0.4150064672522186</v>
-      </c>
-      <c r="P9">
-        <v>0.4150064672522186</v>
-      </c>
-      <c r="Q9">
-        <v>716.4526622962223</v>
-      </c>
-      <c r="R9">
-        <v>6448.073960666001</v>
-      </c>
-      <c r="S9">
-        <v>0.413633064772867</v>
-      </c>
-      <c r="T9">
-        <v>0.4136330647728669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.05540800000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.166224</v>
-      </c>
-      <c r="I10">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="J10">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.970049666666666</v>
-      </c>
-      <c r="N10">
-        <v>29.910149</v>
-      </c>
-      <c r="O10">
-        <v>0.2070400435392452</v>
-      </c>
-      <c r="P10">
-        <v>0.2070400435392452</v>
-      </c>
-      <c r="Q10">
-        <v>0.5524205119306667</v>
-      </c>
-      <c r="R10">
-        <v>4.971784607376</v>
-      </c>
-      <c r="S10">
-        <v>0.0003189315936951646</v>
-      </c>
-      <c r="T10">
-        <v>0.0003189315936951646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.05540800000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.166224</v>
-      </c>
-      <c r="I11">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="J11">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>10.27451266666667</v>
-      </c>
-      <c r="N11">
-        <v>30.823538</v>
-      </c>
-      <c r="O11">
-        <v>0.2133625830333904</v>
-      </c>
-      <c r="P11">
-        <v>0.2133625830333904</v>
-      </c>
-      <c r="Q11">
-        <v>0.5692901978346668</v>
-      </c>
-      <c r="R11">
-        <v>5.123611780512001</v>
-      </c>
-      <c r="S11">
-        <v>0.0003286710506745877</v>
-      </c>
-      <c r="T11">
-        <v>0.0003286710506745877</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.05540800000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.166224</v>
-      </c>
-      <c r="I12">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="J12">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>7.925904</v>
-      </c>
-      <c r="N12">
-        <v>23.777712</v>
-      </c>
-      <c r="O12">
-        <v>0.1645909061751459</v>
-      </c>
-      <c r="P12">
-        <v>0.1645909061751459</v>
-      </c>
-      <c r="Q12">
-        <v>0.439158488832</v>
-      </c>
-      <c r="R12">
-        <v>3.952426399488</v>
-      </c>
-      <c r="S12">
-        <v>0.0002535414846172997</v>
-      </c>
-      <c r="T12">
-        <v>0.0002535414846172997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.05540800000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.166224</v>
-      </c>
-      <c r="I13">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="J13">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.98470933333333</v>
-      </c>
-      <c r="N13">
-        <v>59.954128</v>
-      </c>
-      <c r="O13">
-        <v>0.4150064672522186</v>
-      </c>
-      <c r="P13">
-        <v>0.4150064672522186</v>
-      </c>
-      <c r="Q13">
-        <v>1.107312774741334</v>
-      </c>
-      <c r="R13">
-        <v>9.965814972672002</v>
-      </c>
-      <c r="S13">
-        <v>0.0006392902152257381</v>
-      </c>
-      <c r="T13">
-        <v>0.000639290215225738</v>
+        <v>0.2277340666678787</v>
       </c>
     </row>
   </sheetData>
